--- a/VersionRecords/Version 6.0.6 20170515/版本Bug和特性计划及评审表v6.0.6.xlsx
+++ b/VersionRecords/Version 6.0.6 20170515/版本Bug和特性计划及评审表v6.0.6.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="23445" windowHeight="13365"/>
   </bookViews>
   <sheets>
-    <sheet name="01 版本X.X.X 新特性|Fix Bug" sheetId="1" r:id="rId1"/>
+    <sheet name="01 版本6.0.6 新特性|Fix Bug" sheetId="1" r:id="rId1"/>
     <sheet name="02 定时器" sheetId="2" r:id="rId2"/>
     <sheet name="03 上线执行顺序" sheetId="3" r:id="rId3"/>
     <sheet name="041 配置文件（测试环境）" sheetId="4" r:id="rId4"/>
@@ -22,7 +22,7 @@
     <sheet name="05 数据修复" sheetId="8" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'01 版本X.X.X 新特性|Fix Bug'!$A$1:$W$20</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'01 版本6.0.6 新特性|Fix Bug'!$A$1:$W$20</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="1" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="3" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="4" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="104">
   <si>
     <t>No</t>
   </si>
@@ -346,6 +346,29 @@
   </si>
   <si>
     <t>FDFK-70</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>fastjson升级、应用记录版本分支信息</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有后端包（renter、renterpc、renter服务窗、rentertp、bs、partner、partnerpc、papp、payapi、tasktracker、openapi）</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>宋伟</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>架构组</t>
+  </si>
+  <si>
+    <t>永余</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOPT-1107</t>
     <phoneticPr fontId="25" type="noConversion"/>
   </si>
 </sst>
@@ -1037,6 +1060,36 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="10" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="10" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="10" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="10" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="13">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="10" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="10" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="6" borderId="0" xfId="8" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="6" borderId="0" xfId="8" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1063,36 +1116,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="10" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="10" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="10" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="10" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="13">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="10" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="10" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="6" borderId="0" xfId="8" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="6" borderId="0" xfId="8" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="14">
@@ -1111,7 +1134,7 @@
     <cellStyle name="甘特图" xfId="3"/>
     <cellStyle name="着色 4" xfId="11" builtinId="41"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="1">
     <dxf>
       <font>
         <b/>
@@ -1122,11 +1145,9 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf/>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2">
     <tableStyle name="MySqlDefault" count="2">
-      <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
   </tableStyles>
@@ -1473,7 +1494,7 @@
   <dimension ref="A1:X170"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A6"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1574,16 +1595,16 @@
       </c>
     </row>
     <row r="2" spans="1:24" s="46" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="87">
+      <c r="A2" s="78">
         <v>1</v>
       </c>
-      <c r="B2" s="87" t="s">
+      <c r="B2" s="78" t="s">
         <v>68</v>
       </c>
-      <c r="C2" s="87" t="s">
+      <c r="C2" s="78" t="s">
         <v>69</v>
       </c>
-      <c r="D2" s="88" t="s">
+      <c r="D2" s="79" t="s">
         <v>70</v>
       </c>
       <c r="E2" s="58" t="s">
@@ -1605,7 +1626,7 @@
         <v>42866</v>
       </c>
       <c r="K2" s="58"/>
-      <c r="L2" s="89" t="s">
+      <c r="L2" s="80" t="s">
         <v>74</v>
       </c>
       <c r="M2" s="58" t="s">
@@ -1617,13 +1638,13 @@
       <c r="O2" s="58" t="s">
         <v>77</v>
       </c>
-      <c r="P2" s="89" t="s">
+      <c r="P2" s="80" t="s">
         <v>78</v>
       </c>
       <c r="Q2" s="59">
         <v>42867</v>
       </c>
-      <c r="R2" s="89" t="s">
+      <c r="R2" s="80" t="s">
         <v>79</v>
       </c>
       <c r="S2" s="68" t="s">
@@ -1632,20 +1653,20 @@
       <c r="T2" s="56"/>
       <c r="U2" s="56"/>
       <c r="V2" s="67"/>
-      <c r="W2" s="90"/>
+      <c r="W2" s="81"/>
       <c r="X2" s="73"/>
     </row>
     <row r="3" spans="1:24" s="46" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="87">
+      <c r="A3" s="78">
         <v>2</v>
       </c>
-      <c r="B3" s="87" t="s">
+      <c r="B3" s="78" t="s">
         <v>68</v>
       </c>
-      <c r="C3" s="87" t="s">
+      <c r="C3" s="78" t="s">
         <v>69</v>
       </c>
-      <c r="D3" s="88" t="s">
+      <c r="D3" s="79" t="s">
         <v>81</v>
       </c>
       <c r="E3" s="58" t="s">
@@ -1667,7 +1688,7 @@
         <v>42866</v>
       </c>
       <c r="K3" s="58"/>
-      <c r="L3" s="89" t="s">
+      <c r="L3" s="80" t="s">
         <v>83</v>
       </c>
       <c r="M3" s="58" t="s">
@@ -1679,35 +1700,35 @@
       <c r="O3" s="58" t="s">
         <v>84</v>
       </c>
-      <c r="P3" s="89" t="s">
+      <c r="P3" s="80" t="s">
         <v>78</v>
       </c>
       <c r="Q3" s="59">
         <v>42867</v>
       </c>
-      <c r="R3" s="89" t="s">
+      <c r="R3" s="80" t="s">
         <v>79</v>
       </c>
-      <c r="S3" s="91" t="s">
+      <c r="S3" s="82" t="s">
         <v>85</v>
       </c>
       <c r="T3" s="56"/>
       <c r="U3" s="56"/>
       <c r="V3" s="67"/>
-      <c r="W3" s="90"/>
+      <c r="W3" s="81"/>
       <c r="X3" s="73"/>
     </row>
     <row r="4" spans="1:24" s="46" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="87">
+      <c r="A4" s="78">
         <v>3</v>
       </c>
-      <c r="B4" s="87" t="s">
+      <c r="B4" s="78" t="s">
         <v>68</v>
       </c>
-      <c r="C4" s="87" t="s">
+      <c r="C4" s="78" t="s">
         <v>69</v>
       </c>
-      <c r="D4" s="88" t="s">
+      <c r="D4" s="79" t="s">
         <v>86</v>
       </c>
       <c r="E4" s="58" t="s">
@@ -1729,7 +1750,7 @@
         <v>42866</v>
       </c>
       <c r="K4" s="58"/>
-      <c r="L4" s="89" t="s">
+      <c r="L4" s="80" t="s">
         <v>88</v>
       </c>
       <c r="M4" s="58" t="s">
@@ -1741,13 +1762,13 @@
       <c r="O4" s="58" t="s">
         <v>90</v>
       </c>
-      <c r="P4" s="89" t="s">
+      <c r="P4" s="80" t="s">
         <v>78</v>
       </c>
       <c r="Q4" s="59">
         <v>42867</v>
       </c>
-      <c r="R4" s="89" t="s">
+      <c r="R4" s="80" t="s">
         <v>79</v>
       </c>
       <c r="S4" s="56" t="s">
@@ -1756,20 +1777,20 @@
       <c r="T4" s="56"/>
       <c r="U4" s="56"/>
       <c r="V4" s="67"/>
-      <c r="W4" s="90"/>
+      <c r="W4" s="81"/>
       <c r="X4" s="73"/>
     </row>
-    <row r="5" spans="1:24" s="96" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="87">
+    <row r="5" spans="1:24" s="87" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="78">
         <v>4</v>
       </c>
-      <c r="B5" s="87" t="s">
+      <c r="B5" s="78" t="s">
         <v>68</v>
       </c>
-      <c r="C5" s="87" t="s">
+      <c r="C5" s="78" t="s">
         <v>69</v>
       </c>
-      <c r="D5" s="88" t="s">
+      <c r="D5" s="79" t="s">
         <v>92</v>
       </c>
       <c r="E5" s="58" t="s">
@@ -1790,8 +1811,8 @@
       <c r="J5" s="59">
         <v>42866</v>
       </c>
-      <c r="K5" s="92"/>
-      <c r="L5" s="89" t="s">
+      <c r="K5" s="83"/>
+      <c r="L5" s="80" t="s">
         <v>93</v>
       </c>
       <c r="M5" s="58" t="s">
@@ -1803,35 +1824,35 @@
       <c r="O5" s="58" t="s">
         <v>94</v>
       </c>
-      <c r="P5" s="89" t="s">
+      <c r="P5" s="80" t="s">
         <v>78</v>
       </c>
       <c r="Q5" s="59">
         <v>42867</v>
       </c>
-      <c r="R5" s="89" t="s">
+      <c r="R5" s="80" t="s">
         <v>79</v>
       </c>
       <c r="S5" s="56" t="s">
         <v>95</v>
       </c>
-      <c r="T5" s="93"/>
-      <c r="U5" s="93"/>
-      <c r="V5" s="93"/>
-      <c r="W5" s="94"/>
-      <c r="X5" s="95"/>
+      <c r="T5" s="84"/>
+      <c r="U5" s="84"/>
+      <c r="V5" s="84"/>
+      <c r="W5" s="85"/>
+      <c r="X5" s="86"/>
     </row>
     <row r="6" spans="1:24" s="46" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="87">
+      <c r="A6" s="78">
         <v>5</v>
       </c>
-      <c r="B6" s="87" t="s">
+      <c r="B6" s="78" t="s">
         <v>68</v>
       </c>
-      <c r="C6" s="87" t="s">
+      <c r="C6" s="78" t="s">
         <v>69</v>
       </c>
-      <c r="D6" s="88" t="s">
+      <c r="D6" s="79" t="s">
         <v>96</v>
       </c>
       <c r="E6" s="58" t="s">
@@ -1853,7 +1874,7 @@
         <v>42866</v>
       </c>
       <c r="K6" s="58"/>
-      <c r="L6" s="89" t="s">
+      <c r="L6" s="80" t="s">
         <v>93</v>
       </c>
       <c r="M6" s="58" t="s">
@@ -1865,13 +1886,13 @@
       <c r="O6" s="58" t="s">
         <v>94</v>
       </c>
-      <c r="P6" s="89" t="s">
+      <c r="P6" s="80" t="s">
         <v>78</v>
       </c>
       <c r="Q6" s="59">
         <v>42867</v>
       </c>
-      <c r="R6" s="89" t="s">
+      <c r="R6" s="80" t="s">
         <v>79</v>
       </c>
       <c r="S6" s="56" t="s">
@@ -1880,33 +1901,69 @@
       <c r="T6" s="56"/>
       <c r="U6" s="56"/>
       <c r="V6" s="67"/>
-      <c r="W6" s="90"/>
+      <c r="W6" s="81"/>
       <c r="X6" s="73"/>
     </row>
-    <row r="7" spans="1:24" s="46" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A7" s="51"/>
-      <c r="B7" s="51"/>
-      <c r="C7" s="51"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="58"/>
-      <c r="H7" s="59"/>
-      <c r="I7" s="58"/>
-      <c r="J7" s="59"/>
+    <row r="7" spans="1:24" s="46" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="78">
+        <v>6</v>
+      </c>
+      <c r="B7" s="78" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7" s="78" t="s">
+        <v>69</v>
+      </c>
+      <c r="D7" s="79" t="s">
+        <v>98</v>
+      </c>
+      <c r="E7" s="58" t="s">
+        <v>71</v>
+      </c>
+      <c r="F7" s="58" t="s">
+        <v>99</v>
+      </c>
+      <c r="G7" s="58" t="s">
+        <v>73</v>
+      </c>
+      <c r="H7" s="59">
+        <v>42866</v>
+      </c>
+      <c r="I7" s="58" t="s">
+        <v>73</v>
+      </c>
+      <c r="J7" s="59">
+        <v>42866</v>
+      </c>
       <c r="K7" s="58"/>
-      <c r="L7" s="62"/>
-      <c r="M7" s="58"/>
-      <c r="N7" s="58"/>
-      <c r="O7" s="58"/>
-      <c r="P7" s="62"/>
-      <c r="Q7" s="59"/>
-      <c r="R7" s="62"/>
-      <c r="S7" s="56"/>
+      <c r="L7" s="80" t="s">
+        <v>100</v>
+      </c>
+      <c r="M7" s="58" t="s">
+        <v>101</v>
+      </c>
+      <c r="N7" s="58" t="s">
+        <v>76</v>
+      </c>
+      <c r="O7" s="58" t="s">
+        <v>102</v>
+      </c>
+      <c r="P7" s="80" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q7" s="59">
+        <v>42867</v>
+      </c>
+      <c r="R7" s="80" t="s">
+        <v>79</v>
+      </c>
+      <c r="S7" s="56" t="s">
+        <v>103</v>
+      </c>
       <c r="T7" s="56"/>
       <c r="U7" s="56"/>
       <c r="V7" s="67"/>
-      <c r="W7" s="74"/>
+      <c r="W7" s="81"/>
       <c r="X7" s="73"/>
     </row>
     <row r="8" spans="1:24" s="46" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
@@ -5878,7 +5935,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576">
       <formula1>"紧急,不紧急"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G1048576 I1:I1048576 V1:V1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V1:V1048576 I1:I1048576 G1:G1048576">
       <formula1>"是,否"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6062,19 +6119,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="20.25" x14ac:dyDescent="0.15">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="88" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
     </row>
     <row r="2" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A2" s="18" t="s">
@@ -6112,8 +6169,8 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A3" s="80"/>
-      <c r="B3" s="80"/>
+      <c r="A3" s="90"/>
+      <c r="B3" s="90"/>
       <c r="C3" s="20"/>
       <c r="D3" s="21"/>
       <c r="E3" s="21"/>
@@ -6125,8 +6182,8 @@
       <c r="K3" s="28"/>
     </row>
     <row r="4" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A4" s="81"/>
-      <c r="B4" s="82"/>
+      <c r="A4" s="91"/>
+      <c r="B4" s="92"/>
       <c r="C4" s="20"/>
       <c r="D4" s="21"/>
       <c r="E4" s="21"/>
@@ -6138,8 +6195,8 @@
       <c r="K4" s="28"/>
     </row>
     <row r="5" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A5" s="80"/>
-      <c r="B5" s="80"/>
+      <c r="A5" s="90"/>
+      <c r="B5" s="90"/>
       <c r="C5" s="20"/>
       <c r="D5" s="21"/>
       <c r="E5" s="21"/>
@@ -6151,8 +6208,8 @@
       <c r="K5" s="28"/>
     </row>
     <row r="6" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A6" s="82"/>
-      <c r="B6" s="82"/>
+      <c r="A6" s="92"/>
+      <c r="B6" s="92"/>
       <c r="C6" s="20"/>
       <c r="D6" s="21"/>
       <c r="E6" s="21"/>
@@ -6164,8 +6221,8 @@
       <c r="K6" s="28"/>
     </row>
     <row r="7" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A7" s="82"/>
-      <c r="B7" s="82"/>
+      <c r="A7" s="92"/>
+      <c r="B7" s="92"/>
       <c r="C7" s="20"/>
       <c r="D7" s="21"/>
       <c r="E7" s="21"/>
@@ -6177,8 +6234,8 @@
       <c r="K7" s="28"/>
     </row>
     <row r="8" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A8" s="82"/>
-      <c r="B8" s="82"/>
+      <c r="A8" s="92"/>
+      <c r="B8" s="92"/>
       <c r="C8" s="20"/>
       <c r="D8" s="21"/>
       <c r="E8" s="21"/>
@@ -6190,8 +6247,8 @@
       <c r="K8" s="28"/>
     </row>
     <row r="9" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A9" s="82"/>
-      <c r="B9" s="82"/>
+      <c r="A9" s="92"/>
+      <c r="B9" s="92"/>
       <c r="C9" s="20"/>
       <c r="D9" s="21"/>
       <c r="E9" s="21"/>
@@ -6203,8 +6260,8 @@
       <c r="K9" s="28"/>
     </row>
     <row r="10" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A10" s="81"/>
-      <c r="B10" s="81"/>
+      <c r="A10" s="91"/>
+      <c r="B10" s="91"/>
       <c r="C10" s="20"/>
       <c r="D10" s="21"/>
       <c r="E10" s="21"/>
@@ -6265,36 +6322,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="93" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="84"/>
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="93"/>
+      <c r="K1" s="93"/>
+      <c r="L1" s="93"/>
+      <c r="M1" s="94"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="85"/>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="85"/>
-      <c r="L2" s="85"/>
-      <c r="M2" s="86"/>
+      <c r="A2" s="95"/>
+      <c r="B2" s="95"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="95"/>
+      <c r="G2" s="95"/>
+      <c r="H2" s="95"/>
+      <c r="I2" s="95"/>
+      <c r="J2" s="95"/>
+      <c r="K2" s="95"/>
+      <c r="L2" s="95"/>
+      <c r="M2" s="96"/>
     </row>
     <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
@@ -6579,36 +6636,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="93" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="84"/>
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="93"/>
+      <c r="K1" s="93"/>
+      <c r="L1" s="93"/>
+      <c r="M1" s="94"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="85"/>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="85"/>
-      <c r="L2" s="85"/>
-      <c r="M2" s="86"/>
+      <c r="A2" s="95"/>
+      <c r="B2" s="95"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="95"/>
+      <c r="G2" s="95"/>
+      <c r="H2" s="95"/>
+      <c r="I2" s="95"/>
+      <c r="J2" s="95"/>
+      <c r="K2" s="95"/>
+      <c r="L2" s="95"/>
+      <c r="M2" s="96"/>
     </row>
     <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
@@ -6893,36 +6950,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="93" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="84"/>
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="93"/>
+      <c r="K1" s="93"/>
+      <c r="L1" s="93"/>
+      <c r="M1" s="94"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="85"/>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="85"/>
-      <c r="L2" s="85"/>
-      <c r="M2" s="86"/>
+      <c r="A2" s="95"/>
+      <c r="B2" s="95"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="95"/>
+      <c r="G2" s="95"/>
+      <c r="H2" s="95"/>
+      <c r="I2" s="95"/>
+      <c r="J2" s="95"/>
+      <c r="K2" s="95"/>
+      <c r="L2" s="95"/>
+      <c r="M2" s="96"/>
     </row>
     <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
@@ -7209,36 +7266,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="93" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="84"/>
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="93"/>
+      <c r="K1" s="93"/>
+      <c r="L1" s="93"/>
+      <c r="M1" s="94"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="85"/>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="85"/>
-      <c r="L2" s="85"/>
-      <c r="M2" s="86"/>
+      <c r="A2" s="95"/>
+      <c r="B2" s="95"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="95"/>
+      <c r="G2" s="95"/>
+      <c r="H2" s="95"/>
+      <c r="I2" s="95"/>
+      <c r="J2" s="95"/>
+      <c r="K2" s="95"/>
+      <c r="L2" s="95"/>
+      <c r="M2" s="96"/>
     </row>
     <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
